--- a/result/财富转介户数团队_完成情况.xlsx
+++ b/result/财富转介户数团队_完成情况.xlsx
@@ -456,10 +456,10 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -470,10 +470,10 @@
         <v>2</v>
       </c>
       <c r="C3">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D3">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -484,10 +484,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>4</v>
+        <v>10</v>
       </c>
       <c r="D4">
-        <v>1.333333333333333</v>
+        <v>3.333333333333333</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -497,6 +497,12 @@
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
     </row>
     <row r="6" spans="1:4">
       <c r="A6" s="1" t="s">
@@ -505,6 +511,12 @@
       <c r="B6">
         <v>2</v>
       </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>1.5</v>
+      </c>
     </row>
     <row r="7" spans="1:4">
       <c r="A7" s="1" t="s">
@@ -521,6 +533,12 @@
       <c r="B8">
         <v>2</v>
       </c>
+      <c r="C8">
+        <v>2</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
     </row>
     <row r="9" spans="1:4">
       <c r="A9" s="1" t="s">
@@ -530,10 +548,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -543,6 +561,12 @@
       <c r="B10">
         <v>2</v>
       </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
     </row>
     <row r="11" spans="1:4">
       <c r="A11" s="1" t="s">
@@ -593,6 +617,12 @@
       <c r="B14">
         <v>3</v>
       </c>
+      <c r="C14">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
     </row>
     <row r="15" spans="1:4">
       <c r="A15" s="1" t="s">
@@ -601,6 +631,12 @@
       <c r="B15">
         <v>3</v>
       </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
     </row>
     <row r="16" spans="1:4">
       <c r="A16" s="1" t="s">
@@ -610,10 +646,10 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D16">
-        <v>0.5</v>
+        <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -638,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="C18">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D18">
-        <v>0.5</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/result/财富转介户数团队_完成情况.xlsx
+++ b/result/财富转介户数团队_完成情况.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>财富转介户数_指标</t>
   </si>
@@ -74,6 +74,9 @@
   </si>
   <si>
     <t>黄旭</t>
+  </si>
+  <si>
+    <t>以下为2025年1月业绩填报</t>
   </si>
 </sst>
 </file>
@@ -431,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -484,10 +487,10 @@
         <v>3</v>
       </c>
       <c r="C4">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D4">
-        <v>3.333333333333333</v>
+        <v>3.666666666666667</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -604,10 +607,10 @@
         <v>3</v>
       </c>
       <c r="C13">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -618,10 +621,10 @@
         <v>3</v>
       </c>
       <c r="C14">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D14">
-        <v>1</v>
+        <v>1.333333333333333</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -632,10 +635,10 @@
         <v>3</v>
       </c>
       <c r="C15">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D15">
-        <v>1</v>
+        <v>1.666666666666667</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -678,6 +681,14 @@
       </c>
       <c r="D18">
         <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/result/财富转介户数团队_完成情况.xlsx
+++ b/result/财富转介户数团队_完成情况.xlsx
@@ -551,10 +551,10 @@
         <v>2</v>
       </c>
       <c r="C9">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D9">
-        <v>1.5</v>
+        <v>2</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -565,10 +565,10 @@
         <v>2</v>
       </c>
       <c r="C10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D10">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -649,10 +649,10 @@
         <v>2</v>
       </c>
       <c r="C16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D16">
-        <v>1</v>
+        <v>1.5</v>
       </c>
     </row>
     <row r="17" spans="1:4">
